--- a/psychometric_scale/stuff/SF36.xlsx
+++ b/psychometric_scale/stuff/SF36.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Library/Mobile Documents/com~apple~CloudDocs/*DOCUMENTS*/* INTERNAT PSYCHIATRIE/*RECHERCHE/CONHECT/*AQ MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Desktop/psychometric_scale/stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DFAC10-22B5-A044-AF3F-26C62B690527}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CB43274E-A7B0-C740-88E2-89E1ADF277BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27600" windowHeight="17040" activeTab="1" xr2:uid="{DB18C2D3-43B1-F745-B27D-D9ED5378EB0B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
   <si>
     <t>1. Dans l’ensemble, pensez-vous que votre santé est...</t>
   </si>
@@ -34,57 +34,6 @@
     <t>2. Par rapport au même jour de la semaine dernière, comment trouvez-vous votre état de santé en ce moment ?</t>
   </si>
   <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel. a. Efforts physiques importants tels que courir, soulever un objet lourd, faire du sport</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel. b. Efforts physiques modérés telles que déplacer une table, passer l’aspirateur, jouer aux boules</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... c. Soulever et porter les courses</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... d. Monter plusieurs étages par l’escalier</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... e. Monter un étage par l’escalier</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... f. Se pencher en avant, se mettre à genoux, s’accroupir</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... g. Marcher plus d’un kilomètre à pied</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... h. Marcher plusieurs centaines de mètres</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... i. Marcher une centaine de mètres</t>
-  </si>
-  <si>
-    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel... j. Prendre un bain, une douche ou s’habiller</t>
-  </si>
-  <si>
-    <t>4. Au cours de cette dernière semaine et en raison de votre état physique... a. Avez-vous réduit le temps passé à votre travail ou à vos activités habituelles ?</t>
-  </si>
-  <si>
-    <t>4. Au cours de cette dernière semaine et en raison de votre état physique... b. Avez-vous accompli moins de choses que vous l’auriez souhaité ?</t>
-  </si>
-  <si>
-    <t>4. Au cours de cette dernière semaine et en raison de votre état physique... c. Avez-vous dû arrêter de faire certaines choses ?</t>
-  </si>
-  <si>
-    <t>4. Au cours de cette dernière semaine et en raison de votre état physique... d. Avez-vous eu des difficultés à faire votre travail ou toute autre activité (par exemple, cela vous a demandé un effort supplémentaire) ?</t>
-  </si>
-  <si>
-    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))... a. Avez-vous réduit le temps passé à votre travail ou à vos activités habituelles ?</t>
-  </si>
-  <si>
-    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))... b. Avez-vous accompli moins de choses que vous l’auriez souhaité ?</t>
-  </si>
-  <si>
-    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))... c. Avez-vous eu des difficultés à faire ce que vous aviez à faire avec autant de soin et d’attention que d’habitude ?</t>
-  </si>
-  <si>
     <t>6. Au cours de cette dernière semaine, dans quelle mesure votre état de santé, physique ou émotionnel, vous a-t-il gêné(e) dans votre vie sociale et vos relations avec les autres, votre famille, vos amis, vos connaissances ?</t>
   </si>
   <si>
@@ -94,48 +43,9 @@
     <t>8. Au cours de cette dernière semaine, dans quelle mesure vos douleurs physiques vous ont-elles limité(e) dans votre travail ou vos activités domestiques ?</t>
   </si>
   <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... a. Vous êtes vous senti(e) dynamique ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... b. Vous êtes-vous senti(e) très nerveux(se) ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... c. Vous êtes-vous senti(e) si découragé(e) que rien ne pouvait vous remonter le moral ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... d. Vous êtes-vous senti(e) calme et détendu(e)?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... e. Vous êtes-vous senti(e) débordante d’énergie ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... f. Vous êtes-vous senti(e) triste et abattu(e) ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... g. Vous êtes-vous senti(e) épuisé(e) ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... h. Vous êtes-vous senti(e) heureux(se) ?</t>
-  </si>
-  <si>
-    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où... i. Vous êtes-vous senti(e) fatigué(e) ?</t>
-  </si>
-  <si>
     <t>10. Au cours de cette dernière semaine, y a-t-il eu des moments où votre état de santé physique ou émotionnel vous a gêné(e) dans votre vie et vos relations avec les autres, votre famille, vos amis, vos connaissances ?</t>
   </si>
   <si>
-    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas... a. Je tombe malade plus facilement que les autres</t>
-  </si>
-  <si>
-    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas... b. Je me porte aussi bien que n’importe qui</t>
-  </si>
-  <si>
-    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas... c. Je m’attends à ce que ma santé se dégrade</t>
-  </si>
-  <si>
-    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas... d. Je suis en excellente santé</t>
-  </si>
-  <si>
     <t>Excellente</t>
   </si>
   <si>
@@ -251,6 +161,96 @@
   </si>
   <si>
     <t>Totalement fausse</t>
+  </si>
+  <si>
+    <t>4. Au cours de cette dernière semaine et en raison de votre état physique...\n\na. Avez-vous réduit le temps passé à votre travail ou à vos activités habituelles ?</t>
+  </si>
+  <si>
+    <t>4. Au cours de cette dernière semaine et en raison de votre état physique...\n\nb. Avez-vous accompli moins de choses que vous l’auriez souhaité ?</t>
+  </si>
+  <si>
+    <t>4. Au cours de cette dernière semaine et en raison de votre état physique...\n\nc. Avez-vous dû arrêter de faire certaines choses ?</t>
+  </si>
+  <si>
+    <t>4. Au cours de cette dernière semaine et en raison de votre état physique...\n\nd. Avez-vous eu des difficultés à faire votre travail ou toute autre activité (par exemple, cela vous a demandé un effort supplémentaire) ?</t>
+  </si>
+  <si>
+    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))...\n\na. Avez-vous réduit le temps passé à votre travail ou à vos activités habituelles ?</t>
+  </si>
+  <si>
+    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))...\n\nb. Avez-vous accompli moins de choses que vous l’auriez souhaité ?</t>
+  </si>
+  <si>
+    <t>5. Au cours de cette dernière semaine et en raison de votre état émotionnel (comme vous sentir triste, nerveux(se) ou déprimé(e))...\n\nc. Avez-vous eu des difficultés à faire ce que vous aviez à faire avec autant de soin et d’attention que d’habitude ?</t>
+  </si>
+  <si>
+    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas...\n\na. Je tombe malade plus facilement que les autres</t>
+  </si>
+  <si>
+    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas...\n\nb. Je me porte aussi bien que n’importe qui</t>
+  </si>
+  <si>
+    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas...\n\nc. Je m’attends à ce que ma santé se dégrade</t>
+  </si>
+  <si>
+    <t>11. Indiquez pour chacune des phrases suivantes, dans quelle mesure elles sont vraies ou fausses dans votre cas...\n\nd. Je suis en excellente santé</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\na. Vous êtes vous senti(e) dynamique ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\nb. Vous êtes-vous senti(e) très nerveux(se) ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\nc. Vous êtes-vous senti(e) si découragé(e) que rien ne pouvait vous remonter le moral ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\nd. Vous êtes-vous senti(e) calme et détendu(e)?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\ne. Vous êtes-vous senti(e) débordante d’énergie ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\nf. Vous êtes-vous senti(e) triste et abattu(e) ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\ng. Vous êtes-vous senti(e) épuisé(e) ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\nh. Vous êtes-vous senti(e) heureux(se) ?</t>
+  </si>
+  <si>
+    <t>9. Les questions qui suivent portent sur comment vous vous êtes senti(e) au cours de cette dernière semaine. Pour chaque question, veuillez indiquer la réponse qui vous semble la plus appropriée. Au cours de cette dernière semaine, y a-t-il eu des moments où...\n\ni. Vous êtes-vous senti(e) fatigué(e) ?</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\na. Efforts physiques importants tels que courir, soulever un objet lourd, faire du sport</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nb. Efforts physiques modérés telles que déplacer une table, passer l’aspirateur, jouer aux boules</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nc. Soulever et porter les courses</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nd. Monter plusieurs étages par l’escalier</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\ne. Monter un étage par l’escalier</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nf. Se pencher en avant, se mettre à genoux, s’accroupir</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\ng. Marcher plus d’un kilomètre à pied</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nh. Marcher plusieurs centaines de mètres</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\ni. Marcher une centaine de mètres</t>
+  </si>
+  <si>
+    <t>3. Voici une liste d’activités que vous pouvez avoir à faire dans votre vie de tous les jours. Pour chacune d’entre elles, indiquez si vous êtes limité(e) en raison de votre état de santé actuel...\n\nj. Prendre un bain, une douche ou s’habiller</t>
   </si>
 </sst>
 </file>
@@ -604,9 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC62750-7E65-7241-A080-0A8620BBF89D}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -622,172 +620,172 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -800,531 +798,528 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
